--- a/Data/WFMSchedulePlanner_SK_REG - Copy.xlsx
+++ b/Data/WFMSchedulePlanner_SK_REG - Copy.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D3E852-C1F4-44A9-896A-2C2CED0FDF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
   <si>
     <t>EMPID</t>
   </si>
@@ -35,9 +34,18 @@
     <t>TestResult</t>
   </si>
   <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
     <t>07/04/2025</t>
   </si>
   <si>
+    <t>Passed</t>
+  </si>
+  <si>
     <t>08/04/2025</t>
   </si>
   <si>
@@ -56,13 +64,7 @@
     <t>13/04/2025</t>
   </si>
   <si>
-    <t>09:00</t>
-  </si>
-  <si>
     <t>22:00</t>
-  </si>
-  <si>
-    <t>17:15</t>
   </si>
   <si>
     <t>00:00</t>
@@ -71,28 +73,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -104,7 +100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,11 +144,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,14 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="17.08984375" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
@@ -448,7 +444,7 @@
     <col min="6" max="6" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,230 +464,232 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="14.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10648999</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10648999</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10648999</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10648999</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10648999</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10648999</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10648999</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="14.5" customHeight="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>10648809</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10648809</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10648809</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10648809</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10648809</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10648809</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Data/WFMSchedulePlanner_SK_REG - Copy.xlsx
+++ b/Data/WFMSchedulePlanner_SK_REG - Copy.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D3E852-C1F4-44A9-896A-2C2CED0FDF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t>EMPID</t>
   </si>
@@ -34,37 +35,34 @@
     <t>TestResult</t>
   </si>
   <si>
+    <t>07/04/2025</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>12/04/2025</t>
+  </si>
+  <si>
+    <t>13/04/2025</t>
+  </si>
+  <si>
     <t>09:00</t>
   </si>
   <si>
+    <t>22:00</t>
+  </si>
+  <si>
     <t>17:15</t>
-  </si>
-  <si>
-    <t>07/04/2025</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>08/04/2025</t>
-  </si>
-  <si>
-    <t>09/04/2025</t>
-  </si>
-  <si>
-    <t>10/04/2025</t>
-  </si>
-  <si>
-    <t>11/04/2025</t>
-  </si>
-  <si>
-    <t>12/04/2025</t>
-  </si>
-  <si>
-    <t>13/04/2025</t>
-  </si>
-  <si>
-    <t>22:00</t>
   </si>
   <si>
     <t>00:00</t>
@@ -73,22 +71,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -100,7 +104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,11 +148,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,14 +432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.08984375" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
@@ -444,7 +448,7 @@
     <col min="6" max="6" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,232 +468,230 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10648999</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10648999</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10648999</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10648999</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10648999</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10648999</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10648999</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>10648809</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>10648809</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10648809</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10648809</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10648809</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10648809</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" ht="14.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10648809</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>